--- a/teaching/traditional_assets/database/data/france/france_insurance_general.xlsx
+++ b/teaching/traditional_assets/database/data/france/france_insurance_general.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ4"/>
+  <dimension ref="A1:AQ3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,124 +591,124 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.02567</v>
+        <v>-0.023</v>
       </c>
       <c r="E2">
-        <v>-0.208</v>
+        <v>-0.103</v>
       </c>
       <c r="F2">
-        <v>0.0549</v>
+        <v>0.0367</v>
       </c>
       <c r="G2">
-        <v>0.0729596694574929</v>
+        <v>0.06632739842307174</v>
       </c>
       <c r="H2">
-        <v>0.0729596694574929</v>
+        <v>0.06632739842307174</v>
       </c>
       <c r="I2">
-        <v>0.05918003815573583</v>
+        <v>0.04842512734650906</v>
       </c>
       <c r="J2">
-        <v>0.02959001907786792</v>
+        <v>0.03205389650296016</v>
       </c>
       <c r="K2">
-        <v>1925</v>
+        <v>3323.2</v>
       </c>
       <c r="L2">
-        <v>0.01352666509733929</v>
+        <v>0.02678891716572095</v>
       </c>
       <c r="M2">
-        <v>5573.42</v>
+        <v>3575.1444</v>
       </c>
       <c r="N2">
-        <v>0.08101242639588005</v>
+        <v>0.06266861822592745</v>
       </c>
       <c r="O2">
-        <v>2.895283116883117</v>
+        <v>1.075813793933558</v>
       </c>
       <c r="P2">
-        <v>4033.82</v>
+        <v>1964.7444</v>
       </c>
       <c r="Q2">
-        <v>0.05863357612457502</v>
+        <v>0.03443995624767741</v>
       </c>
       <c r="R2">
-        <v>2.095490909090909</v>
+        <v>0.5912206307173808</v>
       </c>
       <c r="S2">
-        <v>1539.6</v>
+        <v>1610.4</v>
       </c>
       <c r="T2">
-        <v>0.2762397235449688</v>
+        <v>0.4504433443303718</v>
       </c>
       <c r="U2">
-        <v>27131.2</v>
+        <v>36271.7</v>
       </c>
       <c r="V2">
-        <v>0.394365460172013</v>
+        <v>0.6358057368830676</v>
       </c>
       <c r="W2">
-        <v>0.02353940388763776</v>
+        <v>0.04376812586760511</v>
       </c>
       <c r="X2">
-        <v>0.05998598501183337</v>
+        <v>0.07477979180475795</v>
       </c>
       <c r="Y2">
-        <v>-0.03644658112419562</v>
+        <v>-0.03101166593715284</v>
       </c>
       <c r="Z2">
-        <v>1.949403171941821</v>
+        <v>1.425944211163975</v>
       </c>
       <c r="AA2">
-        <v>0.08403403922386901</v>
+        <v>0.0457070681636452</v>
       </c>
       <c r="AB2">
-        <v>0.04836654585272344</v>
+        <v>0.04335011110626801</v>
       </c>
       <c r="AC2">
-        <v>0.03566749337114557</v>
+        <v>0.002356957057377193</v>
       </c>
       <c r="AD2">
-        <v>57320.5</v>
+        <v>71707.2</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>57320.5</v>
+        <v>71707.2</v>
       </c>
       <c r="AG2">
-        <v>30189.3</v>
+        <v>35435.5</v>
       </c>
       <c r="AH2">
-        <v>0.4545004027986577</v>
+        <v>0.5569249026838444</v>
       </c>
       <c r="AI2">
-        <v>0.3848955983153914</v>
+        <v>0.4326210583853091</v>
       </c>
       <c r="AJ2">
-        <v>0.3049843210784511</v>
+        <v>0.3831531758500669</v>
       </c>
       <c r="AK2">
-        <v>0.2478726304173618</v>
+        <v>0.2736777961505697</v>
       </c>
       <c r="AL2">
-        <v>930.457</v>
+        <v>1036.5</v>
       </c>
       <c r="AM2">
-        <v>930.457</v>
+        <v>1036.5</v>
       </c>
       <c r="AN2">
-        <v>5.699222478523704</v>
+        <v>9.789378839590443</v>
       </c>
       <c r="AO2">
-        <v>9.051466107514909</v>
+        <v>5.795658465991317</v>
       </c>
       <c r="AP2">
-        <v>3.001640550429526</v>
+        <v>4.837610921501707</v>
       </c>
       <c r="AQ2">
-        <v>9.051466107514909</v>
+        <v>5.795658465991317</v>
       </c>
     </row>
     <row r="3">
@@ -719,7 +719,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>April SA (ENXTPA:APR)</t>
+          <t>AXA SA (ENXTPA:CS)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -728,258 +728,124 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0546</v>
+        <v>-0.023</v>
       </c>
       <c r="E3">
-        <v>-0.219</v>
+        <v>-0.103</v>
+      </c>
+      <c r="F3">
+        <v>0.0367</v>
       </c>
       <c r="G3">
-        <v>0.08044429485021877</v>
+        <v>0.06632739842307174</v>
       </c>
       <c r="H3">
-        <v>0.08044429485021877</v>
+        <v>0.06632739842307174</v>
       </c>
       <c r="I3">
-        <v>0.08162234937731402</v>
+        <v>0.04842512734650906</v>
       </c>
       <c r="J3">
-        <v>0.04081117468865701</v>
+        <v>0.03205389650296016</v>
       </c>
       <c r="K3">
-        <v>16.7</v>
+        <v>3323.2</v>
       </c>
       <c r="L3">
-        <v>0.01405250757320767</v>
+        <v>0.02678891716572095</v>
       </c>
       <c r="M3">
-        <v>7.92</v>
+        <v>3575.1444</v>
       </c>
       <c r="N3">
-        <v>0.007662538699690403</v>
+        <v>0.06266861822592745</v>
       </c>
       <c r="O3">
-        <v>0.4742514970059881</v>
+        <v>1.075813793933558</v>
       </c>
       <c r="P3">
-        <v>7.92</v>
+        <v>1964.7444</v>
       </c>
       <c r="Q3">
-        <v>0.007662538699690403</v>
+        <v>0.03443995624767741</v>
       </c>
       <c r="R3">
-        <v>0.4742514970059881</v>
+        <v>0.5912206307173808</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>1610.4</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>0.4504433443303718</v>
       </c>
       <c r="U3">
-        <v>201.3</v>
+        <v>36271.7</v>
       </c>
       <c r="V3">
-        <v>0.1947561919504644</v>
+        <v>0.6358057368830676</v>
       </c>
       <c r="W3">
-        <v>0.02228152101400934</v>
+        <v>0.04376812586760511</v>
       </c>
       <c r="X3">
-        <v>0.05256585311115851</v>
+        <v>0.07477979180475795</v>
       </c>
       <c r="Y3">
-        <v>-0.03028433209714917</v>
+        <v>-0.03101166593715284</v>
       </c>
       <c r="Z3">
-        <v>2.712622688883817</v>
+        <v>1.425944211163975</v>
       </c>
       <c r="AA3">
-        <v>0.110705318420452</v>
+        <v>0.0457070681636452</v>
       </c>
       <c r="AB3">
-        <v>0.04940284785099961</v>
+        <v>0.04335011110626801</v>
       </c>
       <c r="AC3">
-        <v>0.06130247056945235</v>
+        <v>0.002356957057377193</v>
       </c>
       <c r="AD3">
-        <v>142.5</v>
+        <v>71707.2</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>142.5</v>
+        <v>71707.2</v>
       </c>
       <c r="AG3">
-        <v>-58.80000000000001</v>
+        <v>35435.5</v>
       </c>
       <c r="AH3">
-        <v>0.1211631663974152</v>
+        <v>0.5569249026838444</v>
       </c>
       <c r="AI3">
-        <v>0.1658519553072626</v>
+        <v>0.4326210583853091</v>
       </c>
       <c r="AJ3">
-        <v>-0.06032006565449324</v>
+        <v>0.3831531758500669</v>
       </c>
       <c r="AK3">
-        <v>-0.08937528499772002</v>
+        <v>0.2736777961505697</v>
       </c>
       <c r="AL3">
-        <v>0.757</v>
+        <v>1036.5</v>
       </c>
       <c r="AM3">
-        <v>0.757</v>
+        <v>1036.5</v>
       </c>
       <c r="AN3">
-        <v>1.479750778816199</v>
+        <v>9.789378839590443</v>
       </c>
       <c r="AO3">
-        <v>128.1373844121532</v>
+        <v>5.795658465991317</v>
       </c>
       <c r="AP3">
-        <v>-0.6105919003115267</v>
+        <v>4.837610921501707</v>
       </c>
       <c r="AQ3">
-        <v>128.1373844121532</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>AXA SA (ENXTPA:CS)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Insurance (General)</t>
-        </is>
-      </c>
-      <c r="D4">
-        <v>-0.00326</v>
-      </c>
-      <c r="E4">
-        <v>-0.197</v>
-      </c>
-      <c r="F4">
-        <v>0.0549</v>
-      </c>
-      <c r="G4">
-        <v>0.07289664130110519</v>
-      </c>
-      <c r="H4">
-        <v>0.07289664130110519</v>
-      </c>
-      <c r="I4">
-        <v>0.05899105107526691</v>
-      </c>
-      <c r="J4">
-        <v>0.02949552553763345</v>
-      </c>
-      <c r="K4">
-        <v>1908.3</v>
-      </c>
-      <c r="L4">
-        <v>0.01352223696900082</v>
-      </c>
-      <c r="M4">
-        <v>5565.5</v>
-      </c>
-      <c r="N4">
-        <v>0.08213123584230449</v>
-      </c>
-      <c r="O4">
-        <v>2.916470156683959</v>
-      </c>
-      <c r="P4">
-        <v>4025.9</v>
-      </c>
-      <c r="Q4">
-        <v>0.05941103986659485</v>
-      </c>
-      <c r="R4">
-        <v>2.109678771681601</v>
-      </c>
-      <c r="S4">
-        <v>1539.6</v>
-      </c>
-      <c r="T4">
-        <v>0.2766328272392418</v>
-      </c>
-      <c r="U4">
-        <v>26929.9</v>
-      </c>
-      <c r="V4">
-        <v>0.3974101101625507</v>
-      </c>
-      <c r="W4">
-        <v>0.02479728676126618</v>
-      </c>
-      <c r="X4">
-        <v>0.06740611691250824</v>
-      </c>
-      <c r="Y4">
-        <v>-0.04260883015124206</v>
-      </c>
-      <c r="Z4">
-        <v>1.944795320025632</v>
-      </c>
-      <c r="AA4">
-        <v>0.05736276002728607</v>
-      </c>
-      <c r="AB4">
-        <v>0.04733024385444728</v>
-      </c>
-      <c r="AC4">
-        <v>0.01003251617283878</v>
-      </c>
-      <c r="AD4">
-        <v>57178</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>57178</v>
-      </c>
-      <c r="AG4">
-        <v>30248.1</v>
-      </c>
-      <c r="AH4">
-        <v>0.4576381746657436</v>
-      </c>
-      <c r="AI4">
-        <v>0.3861666720696772</v>
-      </c>
-      <c r="AJ4">
-        <v>0.308617551391876</v>
-      </c>
-      <c r="AK4">
-        <v>0.2497042572916159</v>
-      </c>
-      <c r="AL4">
-        <v>929.7</v>
-      </c>
-      <c r="AM4">
-        <v>929.7</v>
-      </c>
-      <c r="AN4">
-        <v>5.740013853613485</v>
-      </c>
-      <c r="AO4">
-        <v>8.954501452081317</v>
-      </c>
-      <c r="AP4">
-        <v>3.036561492977824</v>
-      </c>
-      <c r="AQ4">
-        <v>8.954501452081317</v>
+        <v>5.795658465991317</v>
       </c>
     </row>
   </sheetData>
